--- a/writeup/results.xlsx
+++ b/writeup/results.xlsx
@@ -1,33 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuf48649\Documents\GitHub\NOPE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12673\Documents\GitHub\NOPE\writeup\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA653740-9241-476E-BB87-72D456E2AE66}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24585" windowHeight="12270"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="encoding" sheetId="1" r:id="rId1"/>
+    <sheet name="grid size" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">encoding!$A$1:$L$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>TP</t>
   </si>
@@ -85,11 +96,44 @@
   <si>
     <t>subgrid</t>
   </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>tp</t>
+  </si>
+  <si>
+    <t>tn</t>
+  </si>
+  <si>
+    <t>fp</t>
+  </si>
+  <si>
+    <t>fn</t>
+  </si>
+  <si>
+    <t>models/NOPE_charge7_100n.h5</t>
+  </si>
+  <si>
+    <t>models/NOPE_charge9_100n.h5</t>
+  </si>
+  <si>
+    <t>models/NOPE_charge11_100n.h5</t>
+  </si>
+  <si>
+    <t>models/NOPE_charge13_100n.h5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -182,7 +226,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -224,7 +267,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>encoding!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -247,7 +290,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>encoding!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -273,7 +316,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$7</c:f>
+              <c:f>encoding!$I$2:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -309,7 +352,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
+              <c:f>encoding!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -333,7 +376,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>encoding!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -359,7 +402,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$7</c:f>
+              <c:f>encoding!$J$2:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -395,7 +438,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$1</c:f>
+              <c:f>encoding!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -418,7 +461,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>encoding!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -444,7 +487,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$7</c:f>
+              <c:f>encoding!$K$2:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -480,7 +523,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$1</c:f>
+              <c:f>encoding!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -504,7 +547,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>encoding!$A$2:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -530,7 +573,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$2:$L$7</c:f>
+              <c:f>encoding!$L$2:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -691,7 +734,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -723,6 +765,1606 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Subgrid</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Size Accuracy</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'grid size'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TP rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'grid size'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'grid size'!$I$2:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.73934348239771641</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80955120828538552</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83959173985283642</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8218418284402792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDA2-47FF-B54E-A4DCE635A6CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'grid size'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TN rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'grid size'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'grid size'!$J$2:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.80894291040941857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85682067804056528</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85856983371525941</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87815674146598854</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EDA2-47FF-B54E-A4DCE635A6CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'grid size'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FP rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'grid size'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'grid size'!$K$2:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.19105708959058146</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14317932195943472</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14143016628474059</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12184325853401146</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EDA2-47FF-B54E-A4DCE635A6CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'grid size'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FN rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'grid size'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'grid size'!$L$2:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.26065651760228353</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19044879171461451</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16040826014716353</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17815817155972077</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EDA2-47FF-B54E-A4DCE635A6CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="470180648"/>
+        <c:axId val="470181632"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="470180648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="470181632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="470181632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="470180648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>accuracy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'grid size'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'grid size'!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.79253095388412398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84576123952865601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85408508777618397</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86494427919387795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D9FC-4835-9405-F60020FA34F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>loss</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'grid size'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'grid size'!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.45980164808138702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38250514876990799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36858706517378997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33125860545825098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D9FC-4835-9405-F60020FA34F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="543610968"/>
+        <c:axId val="543611624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="543610968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543611624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="543611624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543610968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Accuracy vs. Subgrid Size</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'grid size'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'grid size'!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.79253095388412398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84576123952865601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85408508777618397</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86494427919387795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4945-4811-951C-280A0AE75D49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="543610968"/>
+        <c:axId val="543611624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="543610968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543611624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="543611624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543610968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Loss vs. Subgrid Size</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'grid size'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'grid size'!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.45980164808138702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38250514876990799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36858706517378997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33125860545825098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B1CE-4AC3-BEFC-D0F4633F2CF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="543610968"/>
+        <c:axId val="543611624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="543610968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543611624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="543611624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.30000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543610968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -798,6 +2440,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -1284,6 +3086,2059 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1320,7 +5175,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1336,6 +5197,210 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50A97438-671B-42A9-A38E-0BD3FC42DE63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2919752A-8378-4343-B185-DFF2D3C2AC34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCCE593F-7CE2-4901-BCC3-4CCF127D0B9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DAE5A22-BD6C-4B09-9DC0-70D517E7470C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="test_models_results"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="D1" t="str">
+            <v>accuracy</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>7</v>
+          </cell>
+          <cell r="D2">
+            <v>0.79253095388412398</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>9</v>
+          </cell>
+          <cell r="D3">
+            <v>0.84576123952865601</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>11</v>
+          </cell>
+          <cell r="D4">
+            <v>0.85408508777618397</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>13</v>
+          </cell>
+          <cell r="D5">
+            <v>0.86494427919387795</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1600,20 +5665,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1651,7 +5716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1677,23 +5742,23 @@
         <v>5268</v>
       </c>
       <c r="I2">
-        <f>E2/(E2+H2)</f>
+        <f t="shared" ref="I2:I7" si="0">E2/(E2+H2)</f>
         <v>0.75007116424708231</v>
       </c>
       <c r="J2">
-        <f>G2/(G2+F2)</f>
+        <f t="shared" ref="J2:J7" si="1">G2/(G2+F2)</f>
         <v>0.78761441647597252</v>
       </c>
       <c r="K2">
-        <f>F2/(F2+G2)</f>
+        <f t="shared" ref="K2:K7" si="2">F2/(F2+G2)</f>
         <v>0.21238558352402745</v>
       </c>
       <c r="L2">
-        <f>H2/(E2+H2)</f>
+        <f t="shared" ref="L2:L7" si="3">H2/(E2+H2)</f>
         <v>0.24992883575291774</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1719,23 +5784,23 @@
         <v>6661</v>
       </c>
       <c r="I3">
-        <f>E3/(E3+H3)</f>
+        <f t="shared" si="0"/>
         <v>0.68282462739869532</v>
       </c>
       <c r="J3">
-        <f>G3/(G3+F3)</f>
+        <f t="shared" si="1"/>
         <v>0.6140217546192942</v>
       </c>
       <c r="K3">
-        <f>F3/(F3+G3)</f>
+        <f t="shared" si="2"/>
         <v>0.38597824538070585</v>
       </c>
       <c r="L3">
-        <f>H3/(E3+H3)</f>
+        <f t="shared" si="3"/>
         <v>0.31717537260130468</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1761,23 +5826,23 @@
         <v>8504</v>
       </c>
       <c r="I4">
-        <f>E4/(E4+H4)</f>
+        <f t="shared" si="0"/>
         <v>0.5945456279202822</v>
       </c>
       <c r="J4">
-        <f>G4/(G4+F4)</f>
+        <f t="shared" si="1"/>
         <v>0.61389943074003794</v>
       </c>
       <c r="K4">
-        <f>F4/(F4+G4)</f>
+        <f t="shared" si="2"/>
         <v>0.38610056925996206</v>
       </c>
       <c r="L4">
-        <f>H4/(E4+H4)</f>
+        <f t="shared" si="3"/>
         <v>0.40545437207971774</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1803,23 +5868,23 @@
         <v>1436</v>
       </c>
       <c r="I5">
-        <f>E5/(E5+H5)</f>
+        <f t="shared" si="0"/>
         <v>0.93431525020583661</v>
       </c>
       <c r="J5">
-        <f>G5/(G5+F5)</f>
+        <f t="shared" si="1"/>
         <v>2.6049920760697304E-2</v>
       </c>
       <c r="K5">
-        <f>F5/(F5+G5)</f>
+        <f t="shared" si="2"/>
         <v>0.97395007923930266</v>
       </c>
       <c r="L5">
-        <f>H5/(E5+H5)</f>
+        <f t="shared" si="3"/>
         <v>6.5684749794163388E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1845,23 +5910,23 @@
         <v>29969</v>
       </c>
       <c r="I6">
-        <f>E6/(E6+H6)</f>
+        <f t="shared" si="0"/>
         <v>1.5699412093145466E-2</v>
       </c>
       <c r="J6">
-        <f>G6/(G6+F6)</f>
+        <f t="shared" si="1"/>
         <v>0.99602076964138397</v>
       </c>
       <c r="K6">
-        <f>F6/(F6+G6)</f>
+        <f t="shared" si="2"/>
         <v>3.9792303586160043E-3</v>
       </c>
       <c r="L6">
-        <f>H6/(E6+H6)</f>
+        <f t="shared" si="3"/>
         <v>0.98430058790685448</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1887,28 +5952,28 @@
         <v>2112</v>
       </c>
       <c r="I7">
-        <f>E7/(E7+H7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>G7/(G7+F7)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K7">
-        <f>F7/(F7+G7)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L7">
-        <f>H7/(E7+H7)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>7</v>
       </c>
@@ -1917,36 +5982,36 @@
         <v>343</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>9</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:C20" si="0">B18^3</f>
+        <f t="shared" ref="C18:C20" si="4">B18^3</f>
         <v>729</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>11</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1331</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>13</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2197</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1">
-    <sortState ref="A2:L7">
+  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L7">
       <sortCondition descending="1" ref="D1"/>
     </sortState>
   </autoFilter>
@@ -1954,4 +6019,226 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70156D20-4852-42CA-A211-A6F2063AB439}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>0.45980164808138702</v>
+      </c>
+      <c r="D2">
+        <v>0.79253095388412398</v>
+      </c>
+      <c r="E2">
+        <v>15541</v>
+      </c>
+      <c r="F2">
+        <v>55106</v>
+      </c>
+      <c r="G2">
+        <v>13015</v>
+      </c>
+      <c r="H2">
+        <v>5479</v>
+      </c>
+      <c r="I2">
+        <f>E2/(E2+H2)</f>
+        <v>0.73934348239771641</v>
+      </c>
+      <c r="J2">
+        <f>F2/(F2+G2)</f>
+        <v>0.80894291040941857</v>
+      </c>
+      <c r="K2">
+        <f>G2/(G2+F2)</f>
+        <v>0.19105708959058146</v>
+      </c>
+      <c r="L2">
+        <f>H2/(H2+E2)</f>
+        <v>0.26065651760228353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>0.38250514876990799</v>
+      </c>
+      <c r="D3">
+        <v>0.84576123952865601</v>
+      </c>
+      <c r="E3">
+        <v>16884</v>
+      </c>
+      <c r="F3">
+        <v>58508</v>
+      </c>
+      <c r="G3">
+        <v>9777</v>
+      </c>
+      <c r="H3">
+        <v>3972</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I5" si="0">E3/(E3+H3)</f>
+        <v>0.80955120828538552</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J5" si="1">F3/(F3+G3)</f>
+        <v>0.85682067804056528</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K5" si="2">G3/(G3+F3)</f>
+        <v>0.14317932195943472</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L5" si="3">H3/(H3+E3)</f>
+        <v>0.19044879171461451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>0.36858706517378997</v>
+      </c>
+      <c r="D4">
+        <v>0.85408508777618397</v>
+      </c>
+      <c r="E4">
+        <v>17686</v>
+      </c>
+      <c r="F4">
+        <v>58448</v>
+      </c>
+      <c r="G4">
+        <v>9628</v>
+      </c>
+      <c r="H4">
+        <v>3379</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0.83959173985283642</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>0.85856983371525941</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>0.14143016628474059</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
+        <v>0.16040826014716353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>0.33125860545825098</v>
+      </c>
+      <c r="D5">
+        <v>0.86494427919387795</v>
+      </c>
+      <c r="E5">
+        <v>17188</v>
+      </c>
+      <c r="F5">
+        <v>59914</v>
+      </c>
+      <c r="G5">
+        <v>8313</v>
+      </c>
+      <c r="H5">
+        <v>3726</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0.8218418284402792</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0.87815674146598854</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>0.12184325853401146</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>0.17815817155972077</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>